--- a/spreadsheets/trial.xlsx
+++ b/spreadsheets/trial.xlsx
@@ -485,32 +485,56 @@
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Buildings and land</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>151</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mortgage</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>201</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>J.Renaud Capital</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E8" t="n">
         <v>300</v>
       </c>
-      <c r="G6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="F7" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8"/>
-    <row r="9"/>
+      <c r="G8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>2000</v>
+      </c>
+    </row>
     <row r="10"/>
     <row r="11"/>
     <row r="12"/>

--- a/spreadsheets/trial.xlsx
+++ b/spreadsheets/trial.xlsx
@@ -485,7 +485,7 @@
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
         <v>201</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8">
@@ -524,15 +524,15 @@
         <v>300</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="2" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="10"/>

--- a/spreadsheets/trial.xlsx
+++ b/spreadsheets/trial.xlsx
@@ -498,7 +498,7 @@
         <v>151</v>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="7">
@@ -524,15 +524,15 @@
         <v>300</v>
       </c>
       <c r="G8" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="2" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="10"/>
